--- a/ITI/Scheduling/StructureDefinition-ihe-sched-appt.xlsx
+++ b/ITI/Scheduling/StructureDefinition-ihe-sched-appt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="366">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -1064,7 +1064,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|http://hl7.org/fhir/uv/ipa/StructureDefinition/ipa-patient|http://hl7.org/fhir/uv/ipa/StructureDefinition/ipa-practitioner|HealthcareService)
+    <t xml:space="preserve">Reference(Location|Patient|Practitioner|PractitionerRole|HealthcareService)
 </t>
   </si>
   <si>
@@ -1072,13 +1072,6 @@
   </si>
   <si>
     <t>A Person, Location/HealthcareService or Device that is participating in the appointment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:actor}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>performer.person | reusableDevice.manufacturedDevice | subject.patient | location.serviceDeliveryLocation</t>
@@ -1522,7 +1515,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="145.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.1640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5164,7 +5157,7 @@
         <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
@@ -5801,14 +5794,16 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD37" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>333</v>
@@ -5829,24 +5824,24 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5872,10 +5867,10 @@
         <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5905,10 +5900,10 @@
         <v>171</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -5926,7 +5921,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -5944,10 +5939,10 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -5958,10 +5953,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5987,10 +5982,10 @@
         <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6020,10 +6015,10 @@
         <v>171</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6041,7 +6036,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>91</v>
@@ -6059,24 +6054,24 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6099,13 +6094,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6156,7 +6151,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6188,10 +6183,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6214,16 +6209,16 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6273,7 +6268,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6291,7 +6286,7 @@
         <v>254</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6300,7 +6295,7 @@
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
